--- a/data/car_data/carinfo.xlsx
+++ b/data/car_data/carinfo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,6 +909,128 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-01-22</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>土浦</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>る</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>29-29</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>donotknow</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2022-01-22</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>car/2021/01/22/IMG_9405.jpeg</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/car_data/carinfo.xlsx
+++ b/data/car_data/carinfo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,6 +909,128 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-01-20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>品川</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>と</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>13-57</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>DAA-HE12</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>car/2021/01/20/NI_S008_F002_M009_1_L.jpg</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/car_data/carinfo.xlsx
+++ b/data/car_data/carinfo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,120 +912,5000 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>え</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>37-29</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>DBA-YF15</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>987654321</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-juke.jpg</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2021-01-20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>千葉</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>や</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>48-90</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6AA-P15</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2021-03-17</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-kicks.jpg</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>横浜</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>は</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>77-70</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ZAA-ZE1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2021-03-05</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-leaf.jpg</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>千葉</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>む</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>59-81</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>DBA-Z12</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>7890</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-cube.jpg</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>神奈川</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>く</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>39-20</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>6AA-E13</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>スタッドレス</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2021-03-25</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-note.jpg</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>千葉</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>て</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>44488</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DBA-H92W</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-otti.jpg</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>横浜</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>や</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>26-00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DBA-TB17</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>スタッドレス</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-sylphy.jpg</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>あ</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>42-35</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DBA-Y12 </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2021-04-03</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-wingroad.jpg</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>横浜</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>こ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>45-60</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DBA-AK12</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2021-04-04</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-march.png</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>練馬</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ち</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>66-66</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DBA-NZE121</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2021-04-05</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-allex.jpg</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>神奈川</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>す</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>57-14</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>3BA-ZRT260</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-allion.jpg</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>世田谷</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>り</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>46-49</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>6AA-NHP10</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-aqua.jpg</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>豊田</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ひ</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>47-71</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>6AA-NKE165</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>3094</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2021-04-08</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-axio.jpg</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>練馬</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>な</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>83-27</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>3BA-ZRE212</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>37367</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-corolla.jpg</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>千葉</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>れ</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>・3-09</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TA-ACM10G </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>49327</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-gaia.jpg</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ほ</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>22-99</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DBA-ACM21W</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-ipsum.jpg</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>横浜</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>に</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>45-45</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DBA-ZGM11W</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>3932</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-isis.jpg</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>野田</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>わ</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>13-21</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>TA-ACT10</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>54321</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-opa.jpg</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>野田</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ん</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>52-52</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DBA-ZGE22W</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>4543</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-wish.jpg</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>横浜</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>さ</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>16-74</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>6AA-HC27</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-serena_CbvtOta.jpg</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>品川</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>の</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>84-00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>GH-M35</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2021-04-02</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-sutezia_pdbQCkB.jpg</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>え</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>37-29</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>DBA-YF15</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>987654321</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-juke.jpg</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>千葉</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>や</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>48-90</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>6AA-P15</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>と</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>13-57</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>DAA-HE12</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2021-03-17</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-kicks.jpg</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>横浜</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>は</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>77-70</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ZAA-ZE1</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2021-03-05</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-leaf.jpg</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>千葉</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>む</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>59-81</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>DBA-Z12</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-cube.jpg</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>神奈川</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>く</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>39-20</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>6AA-E13</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>スタッドレス</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>2021-03-25</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-note.jpg</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>千葉</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>て</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>32-51</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>DBA-H92W</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-otti.jpg</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>横浜</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>や</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>26-00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>DBA-TB17</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>スタッドレス</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-sylphy.jpg</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>品川</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>の</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>84-00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>GH-M35</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>AT</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2021-04-02</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-sutezia.jpg</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>あ</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>42-35</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DBA-Y12 </t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>2021-03-12</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>car/2021/01/20/NI_S008_F002_M009_1_L.jpg</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>2021-04-03</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-wingroad.jpg</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>横浜</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>こ</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>45-60</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>DBA-AK12</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>2021-04-04</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/nissan-march.png</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>練馬</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ち</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>66-66</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>DBA-NZE121</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>2021-04-05</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-allex.jpg</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>神奈川</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>す</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>57-14</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>3BA-ZRT260</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-allion.jpg</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>世田谷</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>り</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>46-49</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>6AA-NHP10</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-aqua.jpg</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>豊田</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ひ</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>47-71</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>6AA-NKE165</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>2021-04-08</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-axio.jpg</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>練馬</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>な</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>83-27</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>3BA-ZRE212</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-corolla.jpg</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>千葉</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>れ</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>・3-09</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TA-ACM10G </t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-gaia.jpg</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>東京</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ほ</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>22-99</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>DBA-ACM21W</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>320000</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-ipsum.jpg</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>横浜</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>に</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>45-45</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>DBA-ZGM11W</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>320000</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-isis.jpg</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>野田</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>わ</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>13-21</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>TA-ACT10</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>320000</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>54321</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-opa.jpg</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>野田</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>ん</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>52-52</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>DBA-ZGE22W</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>car/2021/01/28/toyota-wish.jpg</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
         <is>
           <t>True</t>
         </is>

--- a/data/car_data/carinfo.xlsx
+++ b/data/car_data/carinfo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,7 +912,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1034,7 +1034,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1400,7 +1400,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1644,7 +1644,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1766,7 +1766,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2010,7 +2010,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2132,7 +2132,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2254,7 +2254,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2376,7 +2376,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2498,7 +2498,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">TA-ACM10G </t>
+          <t xml:space="preserve">TA-ACM10G </t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2742,7 +2742,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2864,7 +2864,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2986,7 +2986,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>car/2021/01/28/nissan-serena_CbvtOta.jpg</t>
+          <t>car/2021/01/28/nissan-serena.jpg</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>car/2021/01/28/nissan-sutezia_pdbQCkB.jpg</t>
+          <t>car/2021/01/28/nissan-sutezia.jpg</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">TA-ACM10G </t>
+          <t xml:space="preserve">TA-ACM10G </t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5906,6 +5906,3178 @@
         </is>
       </c>
       <c r="X45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>み</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>17-22</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>5BA-DKLFW</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2021-03-13</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/matuda-CX3.jpg</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>と</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>13-33</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>3BA-HB36S</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>2021-05-13</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/matuda-kyaroru.jpg</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>み</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>24-24</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>5AA-MM53S</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>2021-07-16</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/matuda-wagon.jpg</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>み</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>16-37</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>4AA-MR52S</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>2021-04-17</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/suzuki-hasura.jpg</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>と</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>24-06</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>5AA-MK53S</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/suzuki-supesia.jpg</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>み</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>24-63</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>5AA-MA37S</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/suzuki-sorio.jpg</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>と</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>13-34</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>6AA-RU3</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/honda-vezeru.jpg</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>み</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>69-33</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>DBA-RT3</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>2021-06-12</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/honda-kurosu.jpg</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>と</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>40-33</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6AA-HC27</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/nissan-serena.jpg</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>み</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>56-44</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>3DA-JX20</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/gaisya-6sirizu.jpg</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>た</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>17-22</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>DLA-AUCUK</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/gaisya-goruhu.jpg</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>な</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>77-22</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ABA-981MA122</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/gaisya-keiman.jpg</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>と</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>33-22</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>6AA-E13</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>2021-07-20</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/nissan-noto.jpg</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>る</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>12-41</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>CBA-M401F</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>2022-03-08</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/subaru-dekusu.jpg</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ふ</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>13-88</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>CBA-M401F</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/subaru-sifon.jpg</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>ふ</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>21-68</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>3BA-GT2</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/subaru-IS.jpg</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>ふ</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>24-21</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>6AA-NHP10</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>17000</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/toyota-akua.jpg</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>の</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>62-33</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DBA-ZGM11W</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>2021-05-15</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/toyota-aisisu.jpg</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>と</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>28-68</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>3BA-ZRT260</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/toyota-arion.jpg</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>た</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>41-21</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>6AA-NKE165</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/toyota-KA.jpg</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>と</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>51-47</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>3BA-ZRE212</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>2021-07-19</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/toyota-karorra.jpg</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>る</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>24-27</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>DAA-GC27</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/K0000902768_0026.jpg</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ふ</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>43-87</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>l2019x</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>2021-08-27</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/434_img_04.jpg</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>い</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>92-48</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>DBA-YK12</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>2021-03-09</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/10151032_200706.jpg</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>け</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>19-21</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>DBA-K13</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>16000</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/10151032_201212.jpg</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>水戸</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ち</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>63-22</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>3AA-F1DHUA2</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>car/2021/02/11/gaisya-RSQ8.jpg</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
         <is>
           <t>True</t>
         </is>
